--- a/CompTask2/TestDataShareskill.xlsx
+++ b/CompTask2/TestDataShareskill.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndustryConnect\CompetitionTask\MarsCompetitionTask2\CompTask2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4191FBC5-459B-4C50-B66A-E1D187F87C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F124471E-EC3F-4B92-BCA8-12C33E1AE364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{B5A4693F-F7F5-4A1F-B555-8B2F3ADF979C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="ShareSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginDetails" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>title</t>
   </si>
@@ -118,16 +118,42 @@
   </si>
   <si>
     <t>charge</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+  </si>
+  <si>
+    <t>bbindya@gmail.com</t>
+  </si>
+  <si>
+    <t>binda581214</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,13 +176,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,9 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8626AEE2-4602-4CA1-93AE-6BC3F4D91DD9}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -601,12 +628,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418633D1-9DE3-432E-8E65-9DB3614741BD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{608E7D30-498E-4A03-83CF-1D78D0FA2B2F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{CB74970F-CF35-49CE-AA91-458C8723A8EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>